--- a/biology/Botanique/Allium_commutatum/Allium_commutatum.xlsx
+++ b/biology/Botanique/Allium_commutatum/Allium_commutatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ail des îles
 Allium commutatum (commutatum = changeant en Latin) ou Ail des îles est une espèce de plantes appartenant au genre botanique Allium dont font partie les aulx, les oignons et les poireaux qui appartiennent à la famille des Amaryllidacées. 
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Allium aestivale J.J.Rodr.
 Allium ampeloprasum var. commutatum (Guss.) Fiori
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Grande plante à tige cylindrique. Feuilles linéaires. Spathe (bractée membraneuse de l'inflorescence) à une valve, non persistante. L'inflorescence est une ombelle sphérique portant les fleurs. Longs pédicelles. Fleurs en cloche de couleur variable, blanches à rosées, souvent striées de pourpre.
 Cette espèce est totalement dépourvue de feuilles au moment de la floraison qui est tardive pour une plante méditerranéenne (à partir de juillet ou plus tard).
@@ -580,10 +596,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa gamme native s'étend de Corse et d'Algérie à la Turquie.
-Cette espèce curieuse pousse sur les pentes rocheuses au bord de l'océan. Les bulbes sont résistants au sel et peuvent flotter, ils sont ainsi dispersés lors des tempêtes marines. On trouve également des plantes profondément enfoncées dans les galets des plages, elles y trouvent refuge en tombant des pentes situées au-dessus[2].
+Cette espèce curieuse pousse sur les pentes rocheuses au bord de l'océan. Les bulbes sont résistants au sel et peuvent flotter, ils sont ainsi dispersés lors des tempêtes marines. On trouve également des plantes profondément enfoncées dans les galets des plages, elles y trouvent refuge en tombant des pentes situées au-dessus.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Inscrite en préoccupation mineure mais dans le livre rouge de la flore menacée de France par l'INPN (Inventaire National du Patrimoine Nature).
 </t>
@@ -643,7 +663,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : ombelle
